--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanda\Desktop\broadcast-panel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0C9349-B0BA-480A-9C6D-3BCB16CCCFFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB35543B-945C-4976-8A19-40F703E8DAA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+  <si>
+    <t>WhatsApp JID</t>
+  </si>
   <si>
     <t>Contractors</t>
   </si>
@@ -30,31 +33,29 @@
   <si>
     <t>Retailers</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,14 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -81,38 +75,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -135,28 +111,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -258,6 +234,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -268,31 +245,27 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -314,7 +287,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -372,7 +345,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -385,12 +358,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -402,123 +376,119 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
+    <col min="2" max="3" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>917021217553</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>917021217553</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>917021217553</v>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:D1 A5:D5 B3 D3 A4:B4 D4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,58 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanda\Desktop\broadcast-panel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB35543B-945C-4976-8A19-40F703E8DAA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
-  <si>
-    <t>WhatsApp JID</t>
-  </si>
-  <si>
-    <t>Contractors</t>
-  </si>
-  <si>
-    <t>Individual Customers</t>
-  </si>
-  <si>
-    <t>Retailers</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,28 +61,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -421,74 +396,351 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.75" customWidth="1"/>
-    <col min="2" max="3" width="11.875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>WhatsApp JID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Contractors</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Individual Customers</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Retailers</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>222634629456125@lid</v>
+      </c>
+      <c r="B2">
+        <v>919821149462</v>
+      </c>
+      <c r="C2">
+        <v>919820025645</v>
+      </c>
+      <c r="D2">
+        <v>919820245444</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>919320015554@s.whatsapp.net</v>
+      </c>
+      <c r="B3">
+        <v>919820890109</v>
+      </c>
+      <c r="C3">
+        <v>918879660919</v>
+      </c>
+      <c r="D3">
+        <v>919892097464</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4">
+        <v>919029461916</v>
+      </c>
+      <c r="C4">
+        <v>919769637281</v>
+      </c>
+      <c r="D4">
+        <v>919029432211</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5">
+        <v>919167343492</v>
+      </c>
+      <c r="C5">
+        <v>917086014496</v>
+      </c>
+      <c r="D5">
+        <v>918793187777</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6">
+        <v>919323435065</v>
+      </c>
+      <c r="C6">
+        <v>919870025170</v>
+      </c>
+      <c r="D6">
+        <v>919820501765</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7">
+        <v>919322856522</v>
+      </c>
+      <c r="C7">
+        <v>917400355579</v>
+      </c>
+      <c r="D7">
+        <v>918767875730</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8">
+        <v>919867623441</v>
+      </c>
+      <c r="C8">
+        <v>919967866250</v>
+      </c>
+      <c r="D8">
+        <v>917666649739</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9">
+        <v>919769528758</v>
+      </c>
+      <c r="C9">
+        <v>919892596180</v>
+      </c>
+      <c r="D9">
+        <v>919822435877</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10">
+        <v>919821327930</v>
+      </c>
+      <c r="C10">
+        <v>918879122704</v>
+      </c>
+      <c r="D10">
+        <v>919320404616</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11">
+        <v>919881960737</v>
+      </c>
+      <c r="C11">
+        <v>919702130746</v>
+      </c>
+      <c r="D11">
+        <v>919892178022</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12">
+        <v>917620858731</v>
+      </c>
+      <c r="C12">
+        <v>917977174173</v>
+      </c>
+      <c r="D12">
+        <v>918693850482</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13">
+        <v>919892174534</v>
+      </c>
+      <c r="C13">
+        <v>919320329093</v>
+      </c>
+      <c r="D13">
+        <v>919820026057</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14">
+        <v>919769380692</v>
+      </c>
+      <c r="C14">
+        <v>919892069864</v>
+      </c>
+      <c r="D14">
+        <v>919822124066</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15">
+        <v>919820747192</v>
+      </c>
+      <c r="C15">
+        <v>919820045926</v>
+      </c>
+      <c r="D15">
+        <v>919831021320</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16">
+        <v>917678025541</v>
+      </c>
+      <c r="C16">
+        <v>919869007243</v>
+      </c>
+      <c r="D16">
+        <v>919820218338</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17">
+        <v>919769956631</v>
+      </c>
+      <c r="C17">
+        <v>91</v>
+      </c>
+      <c r="D17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18">
+        <v>919323421817</v>
+      </c>
+      <c r="C18">
+        <v>91</v>
+      </c>
+      <c r="D18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19">
+        <v>919867418049</v>
+      </c>
+      <c r="C19">
+        <v>91</v>
+      </c>
+      <c r="D19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20">
+        <v>919821069000</v>
+      </c>
+      <c r="C20">
+        <v>91</v>
+      </c>
+      <c r="D20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21">
+        <v>919820045488</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22">
+        <v>91</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23">
+        <v>91</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24">
+        <v>91</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1 A5:D5 B3 D3 A4:B4 D4" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>139453477691638@lid</v>
       </c>
       <c r="B4">
         <v>919029461916</v>

--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,41 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanda\Desktop\broadcast-panel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21827E64-261B-4C38-89EA-E94B430A6835}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+  <si>
+    <t>WhatsApp JID</t>
+  </si>
+  <si>
+    <t>Contractors</t>
+  </si>
+  <si>
+    <t>Individual Customers</t>
+  </si>
+  <si>
+    <t>Retailers</t>
+  </si>
+  <si>
+    <t>222634629456125@lid</t>
+  </si>
+  <si>
+    <t>919320015554@s.whatsapp.net</t>
+  </si>
+  <si>
+    <t>139453477691638@lid</t>
+  </si>
+  <si>
+    <t>145483477565531@lid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,14 +82,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,351 +425,531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>WhatsApp JID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Contractors</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Individual Customers</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Retailers</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>222634629456125@lid</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
         <v>919821149462</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>919820025645</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>919820245444</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>919320015554@s.whatsapp.net</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
         <v>919820890109</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>918879660919</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>919892097464</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>139453477691638@lid</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
         <v>919029461916</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>919769637281</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>919029432211</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v/>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
         <v>919167343492</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>917086014496</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>918793187777</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v/>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
         <v>919323435065</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>919870025170</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>919820501765</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
         <v>919322856522</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>917400355579</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>918767875730</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v/>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
         <v>919867623441</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>919967866250</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>917666649739</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v/>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>919769528758</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>919892596180</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>919822435877</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v/>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
         <v>919821327930</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>918879122704</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>919320404616</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v/>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
         <v>919881960737</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>919702130746</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>919892178022</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v/>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
         <v>917620858731</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>917977174173</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>918693850482</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v/>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
         <v>919892174534</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>919320329093</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>919820026057</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v/>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
         <v>919769380692</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>919892069864</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>919822124066</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v/>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
         <v>919820747192</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>919820045926</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>919831021320</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v/>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
         <v>917678025541</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>919869007243</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>919820218338</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v/>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
         <v>919769956631</v>
       </c>
-      <c r="C17">
-        <v>91</v>
-      </c>
-      <c r="D17">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v/>
-      </c>
-      <c r="B18">
+      <c r="C17" s="1">
+        <v>919967408671</v>
+      </c>
+      <c r="D17" s="1">
+        <v>919821083993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
         <v>919323421817</v>
       </c>
-      <c r="C18">
-        <v>91</v>
-      </c>
-      <c r="D18">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v/>
-      </c>
-      <c r="B19">
+      <c r="C18" s="1">
+        <v>919819393719</v>
+      </c>
+      <c r="D18" s="1">
+        <v>919870200188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
         <v>919867418049</v>
       </c>
-      <c r="C19">
-        <v>91</v>
-      </c>
-      <c r="D19">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v/>
-      </c>
-      <c r="B20">
+      <c r="C19" s="1">
+        <v>919833184562</v>
+      </c>
+      <c r="D19" s="1">
+        <v>919999501002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
         <v>919821069000</v>
       </c>
-      <c r="C20">
-        <v>91</v>
-      </c>
-      <c r="D20">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v/>
-      </c>
-      <c r="B21">
+      <c r="C20" s="1">
+        <v>919892131842</v>
+      </c>
+      <c r="D20" s="1">
+        <v>919765484785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
         <v>919820045488</v>
       </c>
-      <c r="C21" t="str">
-        <v/>
-      </c>
-      <c r="D21" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v/>
-      </c>
-      <c r="B22">
-        <v>91</v>
-      </c>
-      <c r="C22" t="str">
-        <v/>
-      </c>
-      <c r="D22" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v/>
-      </c>
-      <c r="B23">
-        <v>91</v>
-      </c>
-      <c r="C23" t="str">
-        <v/>
-      </c>
-      <c r="D23" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v/>
-      </c>
-      <c r="B24">
-        <v>91</v>
-      </c>
-      <c r="C24" t="str">
-        <v/>
-      </c>
-      <c r="D24" t="str">
-        <v/>
+      <c r="C21" s="1">
+        <v>919869586853</v>
+      </c>
+      <c r="D21" s="1">
+        <v>919727790017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>917875337737</v>
+      </c>
+      <c r="C22" s="1">
+        <v>919833744551</v>
+      </c>
+      <c r="D22" s="1">
+        <v>918655032586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>911559594838</v>
+      </c>
+      <c r="C23" s="1">
+        <v>919869071060</v>
+      </c>
+      <c r="D23" s="1">
+        <v>918108829828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>919833486968</v>
+      </c>
+      <c r="C24" s="1">
+        <v>919323407080</v>
+      </c>
+      <c r="D24" s="1">
+        <v>919820517708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>919821048260</v>
+      </c>
+      <c r="C25" s="1">
+        <v>919870484788</v>
+      </c>
+      <c r="D25" s="1">
+        <v>919223570245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>919820662737</v>
+      </c>
+      <c r="C26" s="1">
+        <v>919833816944</v>
+      </c>
+      <c r="D26" s="1">
+        <v>919867752937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>919987844281</v>
+      </c>
+      <c r="C27" s="1">
+        <v>919820333481</v>
+      </c>
+      <c r="D27" s="1">
+        <v>919323159015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>918424044281</v>
+      </c>
+      <c r="C28" s="1">
+        <v>919773567904</v>
+      </c>
+      <c r="D28" s="1">
+        <v>919421668738</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>919930403120</v>
+      </c>
+      <c r="C29" s="1">
+        <v>919850980317</v>
+      </c>
+      <c r="D29" s="1">
+        <v>917083060240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>919930403150</v>
+      </c>
+      <c r="C30" s="1">
+        <v>918380068719</v>
+      </c>
+      <c r="D30" s="1">
+        <v>919326178861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>919967781842</v>
+      </c>
+      <c r="C31" s="1">
+        <v>918104728801</v>
+      </c>
+      <c r="D31" s="1">
+        <v>919869048590</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>919819634855</v>
+      </c>
+      <c r="C32" s="1">
+        <v>919820119219</v>
+      </c>
+      <c r="D32" s="1">
+        <v>919972678785</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>919820163937</v>
+      </c>
+      <c r="C33" s="1">
+        <v>917741977888</v>
+      </c>
+      <c r="D33" s="1">
+        <v>919900534456</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>919820747192</v>
+      </c>
+      <c r="C34" s="1">
+        <v>919867054026</v>
+      </c>
+      <c r="D34" s="1">
+        <v>919884001026</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>917678025541</v>
+      </c>
+      <c r="C35" s="1">
+        <v>919987943256</v>
+      </c>
+      <c r="D35" s="1">
+        <v>919833778018</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
+        <v>919324462480</v>
+      </c>
+      <c r="D36" s="1">
+        <v>917738343170</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>919831078216</v>
+      </c>
+      <c r="D37" s="1">
+        <v>919819909799</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1">
+        <v>917972728372</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1">
+        <v>919323034815</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="1">
+        <v>919833516353</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="1">
+        <v>918237368119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="1">
+        <v>917021578355</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="1">
+        <v>919004050612</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D24"/>
+    <ignoredError sqref="A2:D16 A1:C1 A20:B20 A17:B17 A18:B18 A19:B19 A21:B21 A24 A22 A23" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,59 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanda\Desktop\broadcast-panel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21827E64-261B-4C38-89EA-E94B430A6835}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
-  <si>
-    <t>WhatsApp JID</t>
-  </si>
-  <si>
-    <t>Contractors</t>
-  </si>
-  <si>
-    <t>Individual Customers</t>
-  </si>
-  <si>
-    <t>Retailers</t>
-  </si>
-  <si>
-    <t>222634629456125@lid</t>
-  </si>
-  <si>
-    <t>919320015554@s.whatsapp.net</t>
-  </si>
-  <si>
-    <t>139453477691638@lid</t>
-  </si>
-  <si>
-    <t>145483477565531@lid</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,25 +64,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -425,531 +396,617 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>WhatsApp JID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Contractors</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Individual Customers</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Retailers</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>222634629456125@lid</v>
+      </c>
+      <c r="B2">
         <v>919821149462</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>919820025645</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>919820245444</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3">
+      <c r="A3" t="str">
+        <v>919320015554@s.whatsapp.net</v>
+      </c>
+      <c r="B3">
         <v>919820890109</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>918879660919</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>919892097464</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4">
+      <c r="A4" t="str">
+        <v>139453477691638@lid</v>
+      </c>
+      <c r="B4">
         <v>919029461916</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>919769637281</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>919029432211</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5">
+      <c r="A5" t="str">
+        <v>145483477565531@lid</v>
+      </c>
+      <c r="B5">
         <v>919167343492</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>917086014496</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>918793187777</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6">
+      <c r="A6" t="str">
+        <v>918422017303@s.whatsapp.net</v>
+      </c>
+      <c r="B6">
         <v>919323435065</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>919870025170</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>919820501765</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="7">
+      <c r="A7" t="str">
+        <v>919820059663@s.whatsapp.net</v>
+      </c>
+      <c r="B7">
         <v>919322856522</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>917400355579</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>918767875730</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8">
         <v>919867623441</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>919967866250</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>917666649739</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9">
         <v>919769528758</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>919892596180</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>919822435877</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10">
         <v>919821327930</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>918879122704</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>919320404616</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11">
         <v>919881960737</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>919702130746</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>919892178022</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12">
         <v>917620858731</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>917977174173</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>918693850482</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13">
         <v>919892174534</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>919320329093</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>919820026057</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14">
         <v>919769380692</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>919892069864</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>919822124066</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15">
         <v>919820747192</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>919820045926</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>919831021320</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16">
         <v>917678025541</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>919869007243</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>919820218338</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1">
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17">
         <v>919769956631</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>919967408671</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>919821083993</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1">
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18">
         <v>919323421817</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>919819393719</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>919870200188</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19">
         <v>919867418049</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>919833184562</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>919999501002</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="1">
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20">
         <v>919821069000</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>919892131842</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>919765484785</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1">
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21">
         <v>919820045488</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>919869586853</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>919727790017</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1">
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22">
         <v>917875337737</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>919833744551</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>918655032586</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23">
         <v>911559594838</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>919869071060</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>918108829828</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1">
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24">
         <v>919833486968</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>919323407080</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>919820517708</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25">
         <v>919821048260</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>919870484788</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>919223570245</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26">
         <v>919820662737</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>919833816944</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>919867752937</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27">
         <v>919987844281</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>919820333481</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>919323159015</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28">
         <v>918424044281</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>919773567904</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>919421668738</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29">
         <v>919930403120</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>919850980317</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>917083060240</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30">
         <v>919930403150</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>918380068719</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>919326178861</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31">
         <v>919967781842</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>918104728801</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>919869048590</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32">
         <v>919819634855</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>919820119219</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>919972678785</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33">
         <v>919820163937</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>917741977888</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>919900534456</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34">
         <v>919820747192</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>919867054026</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>919884001026</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35">
         <v>917678025541</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>919987943256</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>919833778018</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1">
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36">
         <v>919324462480</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>917738343170</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="1">
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37">
         <v>919831078216</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>919819909799</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1">
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38">
         <v>917972728372</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1">
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39">
         <v>919323034815</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="1">
+    <row r="40">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40">
         <v>919833516353</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="1">
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41">
         <v>918237368119</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="1">
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42">
         <v>917021578355</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="1">
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43">
         <v>919004050612</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:D16 A1:C1 A20:B20 A17:B17 A18:B18 A19:B19 A21:B21 A24 A22 A23" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D43"/>
   </ignoredErrors>
 </worksheet>
 </file>